--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-23T05:02:19+00:00</t>
+    <t>2021-12-23T10:13:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-23T10:13:00+00:00</t>
+    <t>2021-12-27T04:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T04:10:26+00:00</t>
+    <t>2021-12-27T04:29:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T04:29:25+00:00</t>
+    <t>2021-12-27T04:37:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T04:37:34+00:00</t>
+    <t>2021-12-27T05:03:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T05:03:06+00:00</t>
+    <t>2021-12-27T05:22:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T05:22:14+00:00</t>
+    <t>2021-12-27T15:54:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T15:54:02+00:00</t>
+    <t>2021-12-27T16:05:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-27T16:05:13+00:00</t>
+    <t>2022-01-10T14:49:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:49:35+00:00</t>
+    <t>2022-01-10T15:05:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:05:18+00:00</t>
+    <t>2022-01-24T13:54:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T14:18:27+00:00</t>
+    <t>2022-02-08T14:05:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-08T14:05:18+00:00</t>
+    <t>2022-07-20T10:49:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2998,42 +2998,42 @@
     <col min="1" max="1" width="53.9609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.1640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="99.16796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="99.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="70.3359375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="23.64453125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="23.6484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="156.82421875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="40.80859375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="156.828125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="40.8125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="107.39453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="107.3984375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="40.0703125" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="195.078125" customWidth="true" bestFit="true"/>
   </cols>

--- a/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
+++ b/r4-core-testing-better-valueset-expand-group-design/StructureDefinition-at-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-20T10:49:44+00:00</t>
+    <t>2022-07-20T13:39:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -535,7 +535,7 @@
     <t>extensible</t>
   </si>
   <si>
-    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/ValueSet/at-elga-vs-countryCodes</t>
+    <t>https://termgit.elga.gv.at/ValueSet-elga-laendercodes</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -596,7 +596,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>http://hl7.at/fhir/HL7ATCoreProfiles/4.0.1/CodeSystem/at-core-cs-iso-3166-1-alpha-3</t>
+    <t>https://termgit.elga.gv.at/CodeSystem-iso-3166-1-alpha-3</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -3019,7 +3019,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.3359375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="51.921875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="23.6484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
